--- a/sheets/KUBRA-DISAR - OLIVIER - TÜRKİYE SEYAHATNAMESİ (1790 Yıllarında Türkiye ve İstanbul).xlsx
+++ b/sheets/KUBRA-DISAR - OLIVIER - TÜRKİYE SEYAHATNAMESİ (1790 Yıllarında Türkiye ve İstanbul).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t xml:space="preserve">Tarih (Yıl - Ay – Gün)</t>
   </si>
@@ -65,12 +65,31 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-05-20</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">İstanbul'da söylendiği gibi, veba salgını olmadığını, ve bu hususta korkulacak bir şey bulunmadığını öğrenmekle ayrıca rahtaladık.</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">İstanbul'da söylendiği gibi, veba salgını olmadığını, ve bu hususta korkulacak bir şey bulunmadığını öğrenmekle ayrıca rahtaladık. !!!- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">NOT:" Kitapta adı geçen ay isimlerini aşağıdaki sıraya göre değerlendirmek gerekir. Vendémiaire 1inci günü yılın ilk günüdür. 22 Eylül'e tekabül eder.                                                                                Vendémiaire, Brumaire, Frimaire: Sonbahar                                                  Nivose, Pluviose, Ventose: Kış                                        Germinal, Floréal, Prairial: İlkbahar                                       Messidor, Thermidor, Fructidor: Yaz" (s.183) -!!!</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">İstanbul</t>
@@ -91,9 +110,6 @@
     <t xml:space="preserve">istanbul'da rüzgar batıdan hem pek nadiren eser, hem de estiği zaman pek az devam ettikten sonra ya kuzeye yahut da güneye yönelir.</t>
   </si>
   <si>
-    <t xml:space="preserve">NOT:" Kitapta adı geçen ay isimlerini aşağıdaki sıraya göre değerlendirmek gerekir. Vendémiaire 1inci günü yılın ilk günüdür. 22 Eylül'e tekabül eder.                                                                                Vendémiaire, Brumaire, Frimaire: Sonbahar                                                  Nivose, Pluviose, Ventose: Kış                                        Germinal, Floréal, Prairial: İlkbahar                                       Messidor, Thermidor, Fructidor: Yaz" (s.183)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karadeniz'den gelen suların akıntısı, Sarayburnuna şiddetle çarptıktan sonra muhtelif yönlere dağılır. Bir kısmı bütün limanın çevresini dolaştıktan sonra, Hasköy, Tersane, Galata ve Tophaneyi takiben Fındıklı ve Beşiktaş'a kadar çıkar, diğer kısmı ise, Sarayburnundan sonra doğruca Marmara'ya gider. ...  Boğaz sularının bu şekilde dağılışı, daha evvel de söylediğimiz gibi, şehir halkı tarafından denize atılan bütün çöpleri, siler süpürür, ve limanı dolmaktan kurtarır.</t>
   </si>
   <si>
@@ -116,6 +132,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">26 Prairial 1793 (Haziran ayının ortalarına tekabül eder)                                                    Not: Prairial Fransız devrim takviminde bir aydır. Bu takvim Fransa'da 24 Kasım 1793 ve 1 Ocak 1806 arasinda kullanılmıştır.-!!!</t>
     </r>
@@ -140,6 +157,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">28 Prairial 1793-!!!</t>
     </r>
@@ -164,6 +182,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1793, Kış-!!!</t>
     </r>
@@ -188,6 +207,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1792, Nivose ayı (Aralık-Ocak ayına tekabül eder)-!!!</t>
     </r>
@@ -212,6 +232,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">?-?-?                                                                                                                                                                Not: Yazar, veba salgını ile ilgili geçmişe dair genel bir bilgi vermektedir.-!!!</t>
     </r>
@@ -227,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -271,6 +292,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -322,7 +350,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,11 +363,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,23 +448,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="9" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -520,21 +545,13 @@
       <c r="H3" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -554,25 +571,19 @@
       <c r="H4" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="170.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
@@ -586,19 +597,13 @@
       <c r="H5" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="216.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -618,19 +623,13 @@
       <c r="H6" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="122.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -650,19 +649,13 @@
       <c r="H7" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -682,19 +675,13 @@
       <c r="H8" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="92.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -714,25 +701,19 @@
       <c r="H9" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="113.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
@@ -746,12 +727,6 @@
       <c r="H10" s="2" t="n">
         <v>1977</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
@@ -762,12 +737,6 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
@@ -830,9 +799,6 @@
       <c r="H17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I3:N11"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
